--- a/country_tickers.xlsx
+++ b/country_tickers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/22aa0d426fc8e0ce/Quantitative Finance/Spreadsheets/Geopandas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/22aa0d426fc8e0ce/Quantitative_Finance/Spreadsheets/Geopandas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="8_{6A609276-204B-4028-BA37-3272F769C756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76A062B7-067A-44DE-BF73-4862F4355F0C}"/>
+  <xr:revisionPtr revIDLastSave="95" documentId="8_{6A609276-204B-4028-BA37-3272F769C756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56616AA2-2BFC-4188-AF01-3EFCEA399E79}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3E4B4515-DED1-4A72-B28C-919960996279}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3E4B4515-DED1-4A72-B28C-919960996279}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="255">
   <si>
     <t>Ticker</t>
   </si>
@@ -696,6 +696,111 @@
   </si>
   <si>
     <t>South Sudan</t>
+  </si>
+  <si>
+    <t>FX_Symbol</t>
+  </si>
+  <si>
+    <t>AUD=X</t>
+  </si>
+  <si>
+    <t>EUR=X</t>
+  </si>
+  <si>
+    <t>CAD=X</t>
+  </si>
+  <si>
+    <t>DKK=X</t>
+  </si>
+  <si>
+    <t>ILS=X</t>
+  </si>
+  <si>
+    <t>JPY=X</t>
+  </si>
+  <si>
+    <t>NZD=X</t>
+  </si>
+  <si>
+    <t>NOK=X</t>
+  </si>
+  <si>
+    <t>SEK=X</t>
+  </si>
+  <si>
+    <t>CHF=X</t>
+  </si>
+  <si>
+    <t>GBP=X</t>
+  </si>
+  <si>
+    <t>ARS=X</t>
+  </si>
+  <si>
+    <t>BRL=X</t>
+  </si>
+  <si>
+    <t>CLP=X</t>
+  </si>
+  <si>
+    <t>CNY=X</t>
+  </si>
+  <si>
+    <t>COP=X</t>
+  </si>
+  <si>
+    <t>INR=X</t>
+  </si>
+  <si>
+    <t>IDR=X</t>
+  </si>
+  <si>
+    <t>KWD=X</t>
+  </si>
+  <si>
+    <t>MYR=X</t>
+  </si>
+  <si>
+    <t>MXN=X</t>
+  </si>
+  <si>
+    <t>PEN=X</t>
+  </si>
+  <si>
+    <t>PHP=X</t>
+  </si>
+  <si>
+    <t>PLN=X</t>
+  </si>
+  <si>
+    <t>QAR=X</t>
+  </si>
+  <si>
+    <t>RUB=X</t>
+  </si>
+  <si>
+    <t>SAR=X</t>
+  </si>
+  <si>
+    <t>ZAR=X</t>
+  </si>
+  <si>
+    <t>KRW=X</t>
+  </si>
+  <si>
+    <t>TWD=X</t>
+  </si>
+  <si>
+    <t>THB=X</t>
+  </si>
+  <si>
+    <t>TRY=X</t>
+  </si>
+  <si>
+    <t>AED=X</t>
+  </si>
+  <si>
+    <t>USD=X</t>
   </si>
 </sst>
 </file>
@@ -1047,359 +1152,488 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{837E91B2-471D-478A-92FC-BA63616CCD15}">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>47</v>
       </c>
       <c r="B5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="B16" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
       <c r="B18" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>19</v>
       </c>
       <c r="B19" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
       <c r="B20" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
       <c r="B21" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>22</v>
       </c>
       <c r="B22" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>25</v>
       </c>
       <c r="B25" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
       <c r="B26" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
       <c r="B27" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>28</v>
       </c>
       <c r="B28" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>29</v>
       </c>
       <c r="B29" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>30</v>
       </c>
       <c r="B30" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>31</v>
       </c>
       <c r="B31" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>32</v>
       </c>
       <c r="B32" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>33</v>
       </c>
       <c r="B33" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>34</v>
       </c>
       <c r="B34" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>35</v>
       </c>
       <c r="B35" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>36</v>
       </c>
       <c r="B36" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>37</v>
       </c>
       <c r="B37" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>38</v>
       </c>
       <c r="B38" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>39</v>
       </c>
       <c r="B39" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>40</v>
       </c>
       <c r="B40" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>41</v>
       </c>
       <c r="B41" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>42</v>
       </c>
       <c r="B42" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>82</v>
       </c>
       <c r="B43" t="s">
         <v>83</v>
+      </c>
+      <c r="C43" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -1415,9 +1649,9 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1425,7 +1659,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -1433,7 +1667,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -1441,7 +1675,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -1449,7 +1683,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -1457,7 +1691,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -1465,7 +1699,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -1473,7 +1707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -1481,7 +1715,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -1489,7 +1723,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10</v>
       </c>
@@ -1497,7 +1731,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>11</v>
       </c>
@@ -1505,7 +1739,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12</v>
       </c>
@@ -1513,7 +1747,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>13</v>
       </c>
@@ -1521,7 +1755,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>14</v>
       </c>
@@ -1529,7 +1763,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>15</v>
       </c>
@@ -1537,7 +1771,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>16</v>
       </c>
@@ -1545,7 +1779,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>17</v>
       </c>
@@ -1553,7 +1787,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>18</v>
       </c>
@@ -1561,7 +1795,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>19</v>
       </c>
@@ -1569,7 +1803,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>20</v>
       </c>
@@ -1577,7 +1811,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>21</v>
       </c>
@@ -1585,7 +1819,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>22</v>
       </c>
@@ -1593,7 +1827,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>23</v>
       </c>
@@ -1601,7 +1835,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>24</v>
       </c>
@@ -1609,7 +1843,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>25</v>
       </c>
@@ -1617,7 +1851,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>26</v>
       </c>
@@ -1625,7 +1859,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>27</v>
       </c>
@@ -1633,7 +1867,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>28</v>
       </c>
@@ -1641,7 +1875,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>29</v>
       </c>
@@ -1649,7 +1883,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>30</v>
       </c>
@@ -1657,7 +1891,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>31</v>
       </c>
@@ -1665,7 +1899,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>32</v>
       </c>
@@ -1673,7 +1907,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>33</v>
       </c>
@@ -1681,7 +1915,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>34</v>
       </c>
@@ -1689,7 +1923,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>35</v>
       </c>
@@ -1697,7 +1931,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>36</v>
       </c>
@@ -1705,7 +1939,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>37</v>
       </c>
@@ -1713,7 +1947,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>38</v>
       </c>
@@ -1721,7 +1955,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>39</v>
       </c>
@@ -1729,7 +1963,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>40</v>
       </c>
@@ -1737,7 +1971,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>41</v>
       </c>
@@ -1745,7 +1979,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>42</v>
       </c>
@@ -1753,7 +1987,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>43</v>
       </c>
@@ -1761,7 +1995,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>44</v>
       </c>
@@ -1769,7 +2003,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>45</v>
       </c>
@@ -1777,7 +2011,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>46</v>
       </c>
@@ -1785,7 +2019,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>47</v>
       </c>
@@ -1793,7 +2027,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>48</v>
       </c>
@@ -1801,7 +2035,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>49</v>
       </c>
@@ -1809,7 +2043,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>50</v>
       </c>
@@ -1817,7 +2051,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>51</v>
       </c>
@@ -1825,7 +2059,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>52</v>
       </c>
@@ -1833,7 +2067,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>53</v>
       </c>
@@ -1841,7 +2075,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>54</v>
       </c>
@@ -1849,7 +2083,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>55</v>
       </c>
@@ -1857,7 +2091,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>56</v>
       </c>
@@ -1865,7 +2099,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>57</v>
       </c>
@@ -1873,7 +2107,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>58</v>
       </c>
@@ -1881,7 +2115,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>59</v>
       </c>
@@ -1889,7 +2123,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>60</v>
       </c>
@@ -1897,7 +2131,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>61</v>
       </c>
@@ -1905,7 +2139,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>62</v>
       </c>
@@ -1913,7 +2147,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>63</v>
       </c>
@@ -1921,7 +2155,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>64</v>
       </c>
@@ -1929,7 +2163,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>65</v>
       </c>
@@ -1937,7 +2171,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>66</v>
       </c>
@@ -1945,7 +2179,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>67</v>
       </c>
@@ -1953,7 +2187,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>68</v>
       </c>
@@ -1961,7 +2195,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>69</v>
       </c>
@@ -1969,7 +2203,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>70</v>
       </c>
@@ -1977,7 +2211,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>71</v>
       </c>
@@ -1985,7 +2219,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>72</v>
       </c>
@@ -1993,7 +2227,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>73</v>
       </c>
@@ -2001,7 +2235,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>74</v>
       </c>
@@ -2009,7 +2243,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>75</v>
       </c>
@@ -2017,7 +2251,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>76</v>
       </c>
@@ -2025,7 +2259,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>77</v>
       </c>
@@ -2033,7 +2267,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>78</v>
       </c>
@@ -2041,7 +2275,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>79</v>
       </c>
@@ -2049,7 +2283,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>80</v>
       </c>
@@ -2057,7 +2291,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>81</v>
       </c>
@@ -2065,7 +2299,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>82</v>
       </c>
@@ -2073,7 +2307,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>83</v>
       </c>
@@ -2081,7 +2315,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>84</v>
       </c>
@@ -2089,7 +2323,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>85</v>
       </c>
@@ -2097,7 +2331,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>86</v>
       </c>
@@ -2105,7 +2339,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>87</v>
       </c>
@@ -2113,7 +2347,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>88</v>
       </c>
@@ -2121,7 +2355,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>89</v>
       </c>
@@ -2129,7 +2363,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>90</v>
       </c>
@@ -2137,7 +2371,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>91</v>
       </c>
@@ -2145,7 +2379,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>92</v>
       </c>
@@ -2153,7 +2387,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>93</v>
       </c>
@@ -2161,7 +2395,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>94</v>
       </c>
@@ -2169,7 +2403,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>95</v>
       </c>
@@ -2177,7 +2411,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>96</v>
       </c>
@@ -2185,7 +2419,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>97</v>
       </c>
@@ -2193,7 +2427,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>98</v>
       </c>
@@ -2201,7 +2435,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>99</v>
       </c>
@@ -2209,7 +2443,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>100</v>
       </c>
@@ -2217,7 +2451,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>101</v>
       </c>
@@ -2225,7 +2459,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>102</v>
       </c>
@@ -2233,7 +2467,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>103</v>
       </c>
@@ -2241,7 +2475,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>104</v>
       </c>
@@ -2249,7 +2483,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>105</v>
       </c>
@@ -2257,7 +2491,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>106</v>
       </c>
@@ -2265,7 +2499,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>107</v>
       </c>
@@ -2273,7 +2507,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>108</v>
       </c>
@@ -2281,7 +2515,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>109</v>
       </c>
@@ -2289,7 +2523,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>110</v>
       </c>
@@ -2297,7 +2531,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>111</v>
       </c>
@@ -2305,7 +2539,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>112</v>
       </c>
@@ -2313,7 +2547,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>113</v>
       </c>
@@ -2321,7 +2555,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>114</v>
       </c>
@@ -2329,7 +2563,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>115</v>
       </c>
@@ -2337,7 +2571,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>116</v>
       </c>
@@ -2345,7 +2579,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>117</v>
       </c>
@@ -2353,7 +2587,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>118</v>
       </c>
@@ -2361,7 +2595,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>119</v>
       </c>
@@ -2369,7 +2603,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>120</v>
       </c>
@@ -2377,7 +2611,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>121</v>
       </c>
@@ -2385,7 +2619,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>122</v>
       </c>
@@ -2393,7 +2627,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>123</v>
       </c>
@@ -2401,7 +2635,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>124</v>
       </c>
@@ -2409,7 +2643,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>125</v>
       </c>
@@ -2417,7 +2651,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>126</v>
       </c>
@@ -2425,7 +2659,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>127</v>
       </c>
@@ -2433,7 +2667,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>128</v>
       </c>
@@ -2441,7 +2675,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>129</v>
       </c>
@@ -2449,7 +2683,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>130</v>
       </c>
@@ -2457,7 +2691,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>131</v>
       </c>
@@ -2465,7 +2699,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>132</v>
       </c>
@@ -2473,7 +2707,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>133</v>
       </c>
@@ -2481,7 +2715,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>134</v>
       </c>
@@ -2489,7 +2723,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>135</v>
       </c>
@@ -2497,7 +2731,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>136</v>
       </c>
@@ -2505,7 +2739,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>137</v>
       </c>
@@ -2513,7 +2747,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>138</v>
       </c>
@@ -2521,7 +2755,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>139</v>
       </c>
@@ -2529,7 +2763,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>140</v>
       </c>
@@ -2537,7 +2771,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>141</v>
       </c>
@@ -2545,7 +2779,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>142</v>
       </c>
@@ -2553,7 +2787,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>143</v>
       </c>
@@ -2561,7 +2795,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>144</v>
       </c>
@@ -2569,7 +2803,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>145</v>
       </c>
@@ -2577,7 +2811,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>146</v>
       </c>
@@ -2585,7 +2819,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>147</v>
       </c>
@@ -2593,7 +2827,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>148</v>
       </c>
@@ -2601,7 +2835,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>149</v>
       </c>
@@ -2609,7 +2843,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>150</v>
       </c>
@@ -2617,7 +2851,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>151</v>
       </c>
@@ -2625,7 +2859,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>152</v>
       </c>
@@ -2633,7 +2867,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>153</v>
       </c>
@@ -2641,7 +2875,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>154</v>
       </c>
@@ -2649,7 +2883,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>155</v>
       </c>
@@ -2657,7 +2891,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>156</v>
       </c>
@@ -2665,7 +2899,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>157</v>
       </c>
@@ -2673,7 +2907,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>158</v>
       </c>
@@ -2681,7 +2915,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>159</v>
       </c>
@@ -2689,7 +2923,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>160</v>
       </c>
@@ -2697,7 +2931,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>161</v>
       </c>
@@ -2705,7 +2939,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>162</v>
       </c>
@@ -2713,7 +2947,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>163</v>
       </c>
@@ -2721,7 +2955,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>164</v>
       </c>
@@ -2729,7 +2963,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>165</v>
       </c>
@@ -2737,7 +2971,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>166</v>
       </c>
@@ -2745,7 +2979,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>167</v>
       </c>
@@ -2753,7 +2987,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>168</v>
       </c>
@@ -2761,7 +2995,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>169</v>
       </c>
@@ -2769,7 +3003,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>170</v>
       </c>
@@ -2777,7 +3011,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>171</v>
       </c>
@@ -2785,7 +3019,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>172</v>
       </c>
@@ -2793,7 +3027,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>173</v>
       </c>
@@ -2801,7 +3035,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>174</v>
       </c>
@@ -2809,7 +3043,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>175</v>
       </c>
@@ -2817,7 +3051,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>176</v>
       </c>
